--- a/teamsPitching.xlsx
+++ b/teamsPitching.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\report-main\report-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D458EABC-E813-4495-98FB-93D6FDD5F1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDE41B8-EC12-4AEB-96FA-66671130EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{92803D14-1DFB-4962-B946-100E5064DDB4}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="1" xr2:uid="{92803D14-1DFB-4962-B946-100E5064DDB4}"/>
   </bookViews>
   <sheets>
     <sheet name="統一7-ELEVEn獅" sheetId="1" r:id="rId1"/>
-    <sheet name="樂天桃猿" sheetId="2" r:id="rId2"/>
-    <sheet name="味全龍" sheetId="3" r:id="rId3"/>
-    <sheet name="中信兄弟" sheetId="4" r:id="rId4"/>
-    <sheet name="富邦悍將" sheetId="5" r:id="rId5"/>
+    <sheet name="台鋼雄鷹" sheetId="6" r:id="rId2"/>
+    <sheet name="樂天桃猿" sheetId="2" r:id="rId3"/>
+    <sheet name="味全龍" sheetId="3" r:id="rId4"/>
+    <sheet name="中信兄弟" sheetId="4" r:id="rId5"/>
+    <sheet name="富邦悍將" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>年度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,14 +167,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -491,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41FE6FF-7FCB-45B7-BC68-60896AAB4B2F}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -536,40 +534,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>3.54</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1059.0999999999999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>4582</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1126</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>63</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>780</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>334</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>44</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>514</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>417</v>
       </c>
     </row>
@@ -885,11 +883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D56708-AF84-4651-A725-8E6534A6A4C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ACCF82-A959-49B8-BC3A-DD2E6956EE19}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -936,115 +934,49 @@
       <c r="A2" s="1">
         <v>2022</v>
       </c>
-      <c r="B2" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1076</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4553</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1064</v>
-      </c>
-      <c r="F2" s="1">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1">
-        <v>799</v>
-      </c>
-      <c r="H2" s="1">
-        <v>309</v>
-      </c>
-      <c r="I2" s="1">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>448</v>
-      </c>
-      <c r="L2" s="1">
-        <v>389</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
-      <c r="B3" s="1">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1067.0999999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4698</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1117</v>
-      </c>
-      <c r="F3" s="1">
-        <v>69</v>
-      </c>
-      <c r="G3" s="1">
-        <v>798</v>
-      </c>
-      <c r="H3" s="1">
-        <v>399</v>
-      </c>
-      <c r="I3" s="1">
-        <v>59</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>572</v>
-      </c>
-      <c r="L3" s="1">
-        <v>492</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
-      <c r="B4" s="1">
-        <v>5.82</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1064.2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4906</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1349</v>
-      </c>
-      <c r="F4" s="1">
-        <v>153</v>
-      </c>
-      <c r="G4" s="1">
-        <v>893</v>
-      </c>
-      <c r="H4" s="1">
-        <v>378</v>
-      </c>
-      <c r="I4" s="1">
-        <v>76</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1">
-        <v>785</v>
-      </c>
-      <c r="L4" s="1">
-        <v>688</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1145,11 +1077,275 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D56708-AF84-4651-A725-8E6534A6A4C8}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1076</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4553</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1064</v>
+      </c>
+      <c r="F2" s="1">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1">
+        <v>799</v>
+      </c>
+      <c r="H2" s="1">
+        <v>309</v>
+      </c>
+      <c r="I2" s="1">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>448</v>
+      </c>
+      <c r="L2" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1067.0999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4698</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1117</v>
+      </c>
+      <c r="F3" s="1">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1">
+        <v>798</v>
+      </c>
+      <c r="H3" s="1">
+        <v>399</v>
+      </c>
+      <c r="I3" s="1">
+        <v>59</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>572</v>
+      </c>
+      <c r="L3" s="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1064.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4906</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1349</v>
+      </c>
+      <c r="F4" s="1">
+        <v>153</v>
+      </c>
+      <c r="G4" s="1">
+        <v>893</v>
+      </c>
+      <c r="H4" s="1">
+        <v>378</v>
+      </c>
+      <c r="I4" s="1">
+        <v>76</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>785</v>
+      </c>
+      <c r="L4" s="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37852236-94EC-4D25-A164-FB007078815B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -1198,40 +1394,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>3.27</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1069.2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>4567</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1001</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>43</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>720</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>377</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>64</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>496</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>389</v>
       </c>
     </row>
@@ -1314,7 +1510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E36164A-6E55-4E9C-BE8D-466071B2F95A}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -1325,382 +1521,382 @@
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>3.23</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1078</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>4515</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1058</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>45</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>819</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>271</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>41</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>5</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>450</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2021</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>3.66</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1087.0999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>4616</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1094</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>67</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>839</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>317</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>50</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>490</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>4.2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1080.2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>4672</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1112</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>120</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>1035</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>366</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>47</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>571</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>4.58</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>1057.2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>4710</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>1217</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>106</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>797</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>376</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>54</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>604</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>5.09</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>1046</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>4780</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>1264</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>111</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>820</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>394</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>69</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>702</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>5.16</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>1064.2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>4823</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>1265</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>112</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>841</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>424</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>68</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>714</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>6.12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>1065.2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>4963</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>1399</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>140</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>867</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>398</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>68</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>839</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>2015</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>1063.2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>4799</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>1308</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>121</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>710</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>345</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>58</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>702</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>2014</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>3.59</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>1058.0999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>4525</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>1078</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>48</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>674</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>320</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>56</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>491</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>422</v>
       </c>
     </row>
@@ -1710,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864C0A19-5C40-4BB7-8B51-8438F8817863}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -1759,40 +1955,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>3.44</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1070.2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>4601</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1082</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>49</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>796</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>328</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>52</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>512</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>409</v>
       </c>
     </row>
